--- a/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(A100)勤怠状況表画面 (2).xlsx
+++ b/設計書_打刻侍/50_単体テスト/エビデンス/単体テストエビデンス_(A100)勤怠状況表画面 (2).xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubSample\dakokusamurai-git-repository\設計書_打刻侍\50_単体テスト\エビデンス\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D774626-12ED-45A2-805E-91BFF49DD185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA48E38A-2B31-4CE8-BD82-2C9DCA543CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="申請フォーム1回目" sheetId="9" r:id="rId1"/>
-    <sheet name="承認ファーム1回目" sheetId="10" r:id="rId2"/>
+    <sheet name="承認フォーム1回目" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="73">
   <si>
     <t>単体テストエビデンス</t>
     <rPh sb="0" eb="2">
@@ -72,10 +72,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ケース 14～38　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>利用者情報と表の初期表示</t>
     <rPh sb="0" eb="3">
       <t>リヨウシャ</t>
@@ -143,19 +139,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>打刻修正がある場合</t>
-    <rPh sb="0" eb="2">
-      <t>ダコク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>確定ボタン　</t>
     <rPh sb="0" eb="2">
       <t>カクテイ</t>
@@ -166,19 +149,6 @@
     <t>6月で選択</t>
   </si>
   <si>
-    <t>打刻修正したものを表示</t>
-    <rPh sb="0" eb="2">
-      <t>ダコク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュウセイ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>attendanceStatus.jspを再描画する。</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,27 +328,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>打刻修正がない場合</t>
-    <rPh sb="0" eb="4">
-      <t>ダコクシュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ケース72～98</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>打刻修正がある場合</t>
-    <rPh sb="0" eb="4">
-      <t>ダコクシュウセイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>バアイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -429,23 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>使用文字101：0123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789</t>
-    <rPh sb="0" eb="2">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>モジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>➡9まで表示されてしまった。</t>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ケース119～123</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -482,6 +415,203 @@
   </si>
   <si>
     <t>再申請された場合：一度目の差し戻し理由を表示する</t>
+  </si>
+  <si>
+    <t>再申請の場合、テキストボックスを表示する</t>
+    <rPh sb="0" eb="3">
+      <t>サイシンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再申請の場合、差し戻し理由を表示する</t>
+    <rPh sb="0" eb="3">
+      <t>サイシンセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リユウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>36.37/52.53</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>★</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打刻</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打刻ない、修正ない</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打刻ある、修正ない</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar＋打刻</t>
+    <rPh sb="9" eb="11">
+      <t>ダコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>打刻ある、修正ある</t>
+    <rPh sb="0" eb="2">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>calendar＋打刻＋修正</t>
+    <rPh sb="9" eb="11">
+      <t>ダコク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リクエストパラメーターでフォーム申請切り替わり</t>
+    <rPh sb="16" eb="18">
+      <t>シンセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用文字101：01234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在時刻の先月と先月年を取得</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>センゲツ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>センゲツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダー情報のみ表示</t>
+    <rPh sb="5" eb="7">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1～12日</t>
+    <rPh sb="4" eb="5">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>13～19日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20～30日</t>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用するテーブル　</t>
+    <rPh sb="0" eb="2">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレンダーに登録がない月　ヘッダーのみ表示する</t>
+    <rPh sb="6" eb="8">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>➡0まで表示されてしまった。</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -539,11 +669,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="55" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -565,23 +696,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>80416</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>49892</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>121270</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>195117</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>221674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>432343</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>62346</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF573FD1-15CE-7849-1DA4-DFF320F81070}"/>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54442DA2-65AE-3211-79B3-86E89D8B120A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -597,8 +728,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="165100" y="1223416"/>
-          <a:ext cx="11022692" cy="3012654"/>
+          <a:off x="1234208" y="12704619"/>
+          <a:ext cx="11071480" cy="5257800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -607,25 +738,200 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>135083</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>205509</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431572</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>101139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10E21FE-5542-0A90-1CD3-D823A338325B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1174174" y="7035800"/>
+          <a:ext cx="11130743" cy="4606175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1015999</xdr:colOff>
+      <xdr:row>289</xdr:row>
+      <xdr:rowOff>101603</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>308</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B215C24-C7CA-251A-4E1A-D1B6651E9155}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect r="-86" b="52539"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1015999" y="68168985"/>
+          <a:ext cx="16066656" cy="4414979"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>449448</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>222863</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F177013-083D-C4E7-F2C3-F50AA71E5E4D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="51371500"/>
+          <a:ext cx="14765811" cy="4401164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>258921</xdr:colOff>
+      <xdr:row>285</xdr:row>
+      <xdr:rowOff>184760</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F1D9E0-1026-DD24-6610-1EA699D2301F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1054100" y="56172100"/>
+          <a:ext cx="14575284" cy="4363059"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>265</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="矢印: 右 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB66ED0-0348-FA7A-6D65-38A1EB19C6F8}"/>
+        <xdr:cNvPr id="28" name="矢印: 下 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AECA301-C3F8-80C9-418E-B6A23C638806}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -633,10 +939,10 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11315700" y="2336800"/>
-          <a:ext cx="1333500" cy="685800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rightArrow">
+          <a:off x="7607300" y="55829200"/>
+          <a:ext cx="850900" cy="762000"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -667,299 +973,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>570889</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54442DA2-65AE-3211-79B3-86E89D8B120A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1181100" y="12344400"/>
-          <a:ext cx="11200789" cy="5105400"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>15935</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>156557</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10E21FE-5542-0A90-1CD3-D823A338325B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1231901" y="6883400"/>
-          <a:ext cx="11268134" cy="4474557"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>278332</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>61342</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="10" name="グループ化 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AA5C5DF-C47A-1535-0CDE-06BE5A974F64}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1003300" y="18745200"/>
-          <a:ext cx="15124632" cy="15606142"/>
-          <a:chOff x="1041400" y="17145000"/>
-          <a:chExt cx="15124632" cy="15606142"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="5" name="図 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992FB1F1-2099-75E7-0043-818E4BFAA616}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1041400" y="17145000"/>
-            <a:ext cx="15013495" cy="8783276"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="7" name="図 6">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B66C8740-374B-5548-7205-89F7D4E48B39}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1066800" y="25463500"/>
-            <a:ext cx="15099232" cy="7287642"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>316432</xdr:colOff>
-      <xdr:row>224</xdr:row>
-      <xdr:rowOff>61342</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11" name="グループ化 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F2A255-3869-477A-AE39-E285EBA9FDAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1041400" y="35661600"/>
-          <a:ext cx="15124632" cy="15606142"/>
-          <a:chOff x="1041400" y="17145000"/>
-          <a:chExt cx="15124632" cy="15606142"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="12" name="図 11">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C86E0521-5E45-D8EE-461D-9CEBF3E05377}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1041400" y="17145000"/>
-            <a:ext cx="15013495" cy="8783276"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="14" name="図 13">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8A562B3-F3B5-F2A3-F7BF-F8B491CC2CC9}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1066800" y="25463500"/>
-            <a:ext cx="15099232" cy="7287642"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>195</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>60037</xdr:colOff>
+      <xdr:row>333</xdr:row>
+      <xdr:rowOff>109682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>568037</xdr:colOff>
+      <xdr:row>338</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3323000F-16FC-0C7E-D2A9-3D062CF04633}"/>
+        <xdr:cNvPr id="32" name="矢印: 下 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C90183-2E7F-4D47-BD7F-62D549B9FD04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -967,18 +999,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3987800" y="42316400"/>
-          <a:ext cx="10020300" cy="711200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+          <a:off x="7278255" y="80660009"/>
+          <a:ext cx="1173018" cy="1137227"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1007,118 +1033,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1016000</xdr:colOff>
-      <xdr:row>318</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>8501</xdr:colOff>
-      <xdr:row>374</xdr:row>
-      <xdr:rowOff>188055</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="25" name="グループ化 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6F11DA-B03E-86DF-A192-5D048F94C33E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="1016000" y="72796400"/>
-          <a:ext cx="15515201" cy="12888055"/>
-          <a:chOff x="1041400" y="50977800"/>
-          <a:chExt cx="15515201" cy="12888055"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="16" name="図 15">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B215C24-C7CA-251A-4E1A-D1B6651E9155}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1041400" y="50977800"/>
-            <a:ext cx="15499338" cy="8869013"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="19" name="図 18">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A99CBE2-5178-685C-AD50-EAA1836AE0C7}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="1143000" y="58635900"/>
-            <a:ext cx="15413601" cy="5229955"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>274</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>643411</xdr:colOff>
-      <xdr:row>293</xdr:row>
-      <xdr:rowOff>222864</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>363</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>472830</xdr:colOff>
+      <xdr:row>375</xdr:row>
+      <xdr:rowOff>82921</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F177013-083D-C4E7-F2C3-F50AA71E5E4D}"/>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D481EC9-8EE7-0533-BA9F-ECB05D97FFAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1127,15 +1060,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1054100" y="51371500"/>
-          <a:ext cx="14765811" cy="4401164"/>
+          <a:off x="1104900" y="97561400"/>
+          <a:ext cx="12727176" cy="2648320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1144,69 +1077,25 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
+  <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>295</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>371</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>452884</xdr:colOff>
-      <xdr:row>314</xdr:row>
-      <xdr:rowOff>184759</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3F1D9E0-1026-DD24-6610-1EA699D2301F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1054100" y="56172100"/>
-          <a:ext cx="14575284" cy="4363059"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>294</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>297</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>374</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="矢印: 下 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AECA301-C3F8-80C9-418E-B6A23C638806}"/>
+        <xdr:cNvPr id="37" name="正方形/長方形 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C408159-2DF4-403C-BF06-6FCB78EB6D15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1214,12 +1103,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7607300" y="55829200"/>
-          <a:ext cx="850900" cy="762000"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="1066800" y="99352100"/>
+          <a:ext cx="14147800" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1250,383 +1145,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>408</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>412</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="矢印: 下 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C90183-2E7F-4D47-BD7F-62D549B9FD04}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7505700" y="81851500"/>
-          <a:ext cx="1117600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>378</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>576785</xdr:colOff>
-      <xdr:row>407</xdr:row>
-      <xdr:rowOff>108867</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97214856-130A-3DBE-3097-20204DCA669A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="635000" y="75145900"/>
-          <a:ext cx="15118285" cy="6573167"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>390</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>392</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8403E1-5326-477A-9A85-C5D12831FB9A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1041400" y="77774800"/>
-          <a:ext cx="14147800" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>414</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>434289</xdr:colOff>
-      <xdr:row>431</xdr:row>
-      <xdr:rowOff>44979</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5321D60-93FC-2D04-FA52-9D7D6B19C4D1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1143000" y="83350100"/>
-          <a:ext cx="17833289" cy="3791479"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>439</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>215194</xdr:colOff>
-      <xdr:row>475</xdr:row>
-      <xdr:rowOff>182138</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="図 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D387865F-0D30-0CFC-888A-E02011E7CDBF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="88544400"/>
-          <a:ext cx="17690394" cy="8335538"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>478</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>1776</xdr:colOff>
-      <xdr:row>490</xdr:row>
-      <xdr:rowOff>82920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="図 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D481EC9-8EE7-0533-BA9F-ECB05D97FFAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1104900" y="97561400"/>
-          <a:ext cx="12727176" cy="2648320"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>486</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>489</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="正方形/長方形 36">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C408159-2DF4-403C-BF06-6FCB78EB6D15}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="99352100"/>
-          <a:ext cx="14147800" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>492</xdr:row>
+      <xdr:row>377</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>132163</xdr:colOff>
-      <xdr:row>513</xdr:row>
+      <xdr:row>398</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -1642,8 +1169,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1028700" y="112585500"/>
-          <a:ext cx="14279963" cy="4876800"/>
+          <a:off x="1028700" y="88908082"/>
+          <a:ext cx="14301899" cy="5022273"/>
           <a:chOff x="1028700" y="102755700"/>
           <a:chExt cx="14279963" cy="4876800"/>
         </a:xfrm>
@@ -1662,7 +1189,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -1735,13 +1262,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>622300</xdr:colOff>
-      <xdr:row>489</xdr:row>
+      <xdr:row>374</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>393700</xdr:colOff>
-      <xdr:row>493</xdr:row>
+      <xdr:row>378</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1793,23 +1320,232 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>235529</xdr:colOff>
+      <xdr:row>404</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>387927</xdr:colOff>
+      <xdr:row>432</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="61" name="グループ化 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137F1DCF-4006-E2D8-7F8A-9D1F23941E8F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1274620" y="95153017"/>
+          <a:ext cx="14976762" cy="6664038"/>
+          <a:chOff x="1028700" y="87927873"/>
+          <a:chExt cx="17661082" cy="8584919"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="35" name="図 34">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D387865F-0D30-0CFC-888A-E02011E7CDBF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1064491" y="87927873"/>
+            <a:ext cx="17480267" cy="8584919"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="41" name="正方形/長方形 40">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C24F748-0432-4966-983A-70B7BD998F11}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1028700" y="91116727"/>
+            <a:ext cx="17661082" cy="461818"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="42" name="正方形/長方形 41">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BF4E7F-A648-4501-B11F-CAEDC3FBC421}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="1077191" y="92861245"/>
+            <a:ext cx="14172045" cy="585355"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>452</xdr:row>
-      <xdr:rowOff>203200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>455</xdr:row>
+      <xdr:row>439</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>190878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B4ED6F-5854-642A-7AD1-F82C2FFD3AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:srcRect r="9050"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1028700" y="105516218"/>
+          <a:ext cx="15956973" cy="2781678"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>448</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>451</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C24F748-0432-4966-983A-70B7BD998F11}"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C3716A-B8BC-4AE0-88FF-228E41A7C4C3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1817,8 +1553,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="91643200"/>
-          <a:ext cx="14147800" cy="571500"/>
+          <a:off x="800100" y="109156500"/>
+          <a:ext cx="1993900" cy="660400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1857,25 +1593,68 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>863600</xdr:colOff>
+      <xdr:row>453</xdr:row>
+      <xdr:rowOff>12701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>207818</xdr:colOff>
+      <xdr:row>477</xdr:row>
+      <xdr:rowOff>27711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747AB979-B43F-46A4-F374-DAF49C1036EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:srcRect r="19627" b="14441"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="108826301"/>
+          <a:ext cx="11882582" cy="5667664"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>460</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>462</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>450</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="正方形/長方形 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12BF4E7F-A648-4501-B11F-CAEDC3FBC421}"/>
+        <xdr:cNvPr id="46" name="矢印: 下 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FAB391-853E-4790-8311-4D9A9AD3BBA3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1883,18 +1662,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1079500" y="93332300"/>
-          <a:ext cx="14147800" cy="571500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+          <a:off x="7391400" y="109588300"/>
+          <a:ext cx="1117600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -1925,23 +1698,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1028700</xdr:colOff>
-      <xdr:row>518</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>243778</xdr:colOff>
-      <xdr:row>529</xdr:row>
-      <xdr:rowOff>190878</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>467537</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>104986</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="図 42">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36B4ED6F-5854-642A-7AD1-F82C2FFD3AC6}"/>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF8CAFD-45D1-E377-E9F8-77D983250D7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1950,15 +1723,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1028700" y="106984800"/>
-          <a:ext cx="17757078" cy="2705478"/>
+          <a:off x="2565400" y="4533900"/>
+          <a:ext cx="7887801" cy="1514686"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1967,25 +1740,113 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>213</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14601</xdr:colOff>
+      <xdr:row>217</xdr:row>
+      <xdr:rowOff>133496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42251005-83F0-F808-6C11-52C1EDAB402E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1041400" y="52120800"/>
+          <a:ext cx="15689865" cy="1047896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>606598</xdr:colOff>
+      <xdr:row>238</xdr:row>
+      <xdr:rowOff>35681</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCFB3EE-842C-053F-D3AD-78079C93D496}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="939800" y="52451000"/>
+          <a:ext cx="15718444" cy="5420481"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>527</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>530</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88C3716A-B8BC-4AE0-88FF-228E41A7C4C3}"/>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23DAFDC3-EB4C-4997-BE6A-03522072A68D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1993,8 +1854,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="109156500"/>
-          <a:ext cx="1993900" cy="660400"/>
+          <a:off x="2641600" y="4737100"/>
+          <a:ext cx="7480300" cy="558800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2033,69 +1894,25 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>863600</xdr:colOff>
-      <xdr:row>532</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>643437</xdr:colOff>
-      <xdr:row>560</xdr:row>
-      <xdr:rowOff>42172</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{747AB979-B43F-46A4-F374-DAF49C1036EA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="863600" y="110197900"/>
-          <a:ext cx="14956337" cy="6430272"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>529</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>533</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="矢印: 下 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6FAB391-853E-4790-8311-4D9A9AD3BBA3}"/>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8245FA7E-DDF6-4751-B327-1AC3F27B397F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2103,12 +1920,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7391400" y="109588300"/>
-          <a:ext cx="1117600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="1257300" y="6819900"/>
+          <a:ext cx="6781800" cy="355600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2137,25 +1960,282 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>850900</xdr:colOff>
+      <xdr:row>266</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>268</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCF36400-4E8F-4A5D-B9FE-40928406EF1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="850900" y="67462400"/>
+          <a:ext cx="6070600" cy="508000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67716</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>661501</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>104986</xdr:rowOff>
+      <xdr:colOff>86797</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>172729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="図 46">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AF8CAFD-45D1-E377-E9F8-77D983250D7E}"/>
+        <xdr:cNvPr id="18" name="図 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97123D40-EBC8-8184-3EBC-71852611A362}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="317500" y="982116"/>
+          <a:ext cx="9754961" cy="1705213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333664</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>169317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>155865</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>60707</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E591DEF0-87DB-AE4E-4979-C115FBDF89AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10017991" y="640372"/>
+          <a:ext cx="9132455" cy="4837462"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>518391</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>505691</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>51954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="矢印: 右 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FB66ED0-0348-FA7A-6D65-38A1EB19C6F8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8872682" y="1229590"/>
+          <a:ext cx="1317336" cy="706582"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>33483</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>41564</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>139916</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{046DEDBE-D7B7-4D47-AABE-B09A6D093391}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:srcRect l="374" t="43485" r="2910" b="3368"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1072574" y="19354800"/>
+          <a:ext cx="14347535" cy="4808898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>24246</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>20201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A9730C-A327-8C3B-D001-C1BF2A209316}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2171,8 +2251,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2565400" y="4533900"/>
-          <a:ext cx="7887801" cy="1514686"/>
+          <a:off x="1063337" y="18946091"/>
+          <a:ext cx="8037368" cy="8159746"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2183,23 +2263,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>228</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>208565</xdr:colOff>
-      <xdr:row>232</xdr:row>
-      <xdr:rowOff>133496</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>554152</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>152719</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="図 49">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{42251005-83F0-F808-6C11-52C1EDAB402E}"/>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32729A81-5B59-4DFC-7637-8B6A037AA66F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2215,8 +2295,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1041400" y="52120800"/>
-          <a:ext cx="15689865" cy="1047896"/>
+          <a:off x="16059150" y="19354800"/>
+          <a:ext cx="12193702" cy="2286319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2227,23 +2307,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>229</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>135544</xdr:colOff>
-      <xdr:row>253</xdr:row>
-      <xdr:rowOff>35681</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>651165</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>207819</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>173240</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>107019</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="図 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CCFB3EE-842C-053F-D3AD-78079C93D496}"/>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5302E1A3-5366-70F8-3E97-C176E357C731}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2259,8 +2339,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="939800" y="52451000"/>
-          <a:ext cx="15718444" cy="5420481"/>
+          <a:off x="15849601" y="34123746"/>
+          <a:ext cx="12822439" cy="3667637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2271,23 +2351,66 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>664738</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>64101</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>263236</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>401782</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>5853</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CB15DC9-2C0D-E785-0FEA-1788492653E8}"/>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07C15365-C280-8D18-132C-D567AF416F1A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:srcRect t="399" r="11826" b="1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1302327" y="33999054"/>
+          <a:ext cx="13632873" cy="3455635"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>19270</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>169140</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26365183-9C77-C6A9-09C7-78EA354C9A47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2296,21 +2419,549 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12890500" y="787400"/>
-          <a:ext cx="8335538" cy="4305901"/>
+          <a:off x="16334509" y="29427054"/>
+          <a:ext cx="13984652" cy="2067213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>651163</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>235525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>33994</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>49624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C689CCD-2FB5-56B3-2CDD-A40D10EAD7DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16320654" y="31796180"/>
+          <a:ext cx="14013231" cy="1933845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>955964</xdr:colOff>
+      <xdr:row>165</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>267952</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>225726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="57" name="図 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4DFE79DF-C849-A4E3-A23E-A18D6E71B384}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="955964" y="29440909"/>
+          <a:ext cx="15175443" cy="4229690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>164265</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>83127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="図 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B08F9190-0BF9-E77C-BCB0-E374316EF74E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1177637" y="44389963"/>
+          <a:ext cx="12190010" cy="4682837"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>484910</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>212916</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>73877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB43458C-2F2D-DC86-70FA-1FC0E588B439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14353310" y="45678436"/>
+          <a:ext cx="11698333" cy="1971950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>498765</xdr:colOff>
+      <xdr:row>403</xdr:row>
+      <xdr:rowOff>166256</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>387928</xdr:colOff>
+      <xdr:row>405</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="正方形/長方形 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F5D704C-42F8-4511-ACBD-4ECACDCDEC80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2202874" y="97203492"/>
+          <a:ext cx="6068290" cy="429490"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>452</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>512618</xdr:colOff>
+      <xdr:row>454</xdr:row>
+      <xdr:rowOff>178954</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="正方形/長方形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EAFECD-E84F-41AA-A1D1-EB81A5D9B90A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="108591927"/>
+          <a:ext cx="5088082" cy="636154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>983673</xdr:colOff>
+      <xdr:row>313</xdr:row>
+      <xdr:rowOff>110838</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>295661</xdr:colOff>
+      <xdr:row>331</xdr:row>
+      <xdr:rowOff>101037</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F30C377-2B89-48A7-B9BB-1219FF0B4766}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983673" y="73830874"/>
+          <a:ext cx="15175443" cy="4229690"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>900545</xdr:colOff>
+      <xdr:row>317</xdr:row>
+      <xdr:rowOff>120072</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>539172</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>234372</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB8403E1-5326-477A-9A85-C5D12831FB9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="900545" y="74782217"/>
+          <a:ext cx="14172045" cy="585355"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1032164</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>195118</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>232063</xdr:colOff>
+      <xdr:row>357</xdr:row>
+      <xdr:rowOff>194844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="68" name="図 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60DBFEC7-6B42-C96A-B59C-11EEF5E61D06}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1032164" y="80038863"/>
+          <a:ext cx="12403281" cy="4239217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>983673</xdr:colOff>
+      <xdr:row>339</xdr:row>
+      <xdr:rowOff>96983</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>637309</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="正方形/長方形 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28282652-B53B-40DF-831B-63F5B1AC0709}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="983673" y="82060474"/>
+          <a:ext cx="8201891" cy="374072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2715,23 +3366,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>576943</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>54428</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>881742</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>496094</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>188818</xdr:rowOff>
+      <xdr:colOff>154601</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>216865</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="図 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99E51DBA-269D-84C8-8378-AF74C9E788A9}"/>
+        <xdr:cNvPr id="15" name="図 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF3FC8F-E059-C778-40B5-11CCF0071FE0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2747,94 +3398,6 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1556657" y="18571028"/>
-          <a:ext cx="15442180" cy="7449590"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>881743</xdr:colOff>
-      <xdr:row>226</xdr:row>
-      <xdr:rowOff>185061</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>134094</xdr:colOff>
-      <xdr:row>246</xdr:row>
-      <xdr:rowOff>119016</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="図 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3A97990-9C99-BB92-CB7C-E88592069EB9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="881743" y="44990661"/>
-          <a:ext cx="15080180" cy="4505954"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>881742</xdr:colOff>
-      <xdr:row>204</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>154601</xdr:colOff>
-      <xdr:row>220</xdr:row>
-      <xdr:rowOff>216866</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="図 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BF3FC8F-E059-C778-40B5-11CCF0071FE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="881742" y="39983228"/>
           <a:ext cx="15775602" cy="3667637"/>
         </a:xfrm>
@@ -2847,23 +3410,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>272143</xdr:colOff>
-      <xdr:row>240</xdr:row>
-      <xdr:rowOff>206828</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>32656</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>108857</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>500743</xdr:colOff>
+      <xdr:row>230</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>268515</xdr:colOff>
+      <xdr:row>234</xdr:row>
+      <xdr:rowOff>206829</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="正方形/長方形 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688B9FB3-8B2B-4D3A-B42B-4023644647AC}"/>
+        <xdr:cNvPr id="18" name="矢印: 下 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A115721A-1F78-45AD-8C77-2C0F5B8FCB6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,18 +3434,12 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3951514" y="48212828"/>
-          <a:ext cx="7184571" cy="1502229"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
+          <a:off x="7554686" y="49813029"/>
+          <a:ext cx="1117600" cy="914400"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -2913,23 +3470,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>936172</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>185057</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>623480</xdr:colOff>
-      <xdr:row>273</xdr:row>
-      <xdr:rowOff>52390</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>484909</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>12866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>641196</xdr:colOff>
+      <xdr:row>243</xdr:row>
+      <xdr:rowOff>13120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="図 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02C30C45-DDE5-BB95-1E4C-5127BF70412F}"/>
+        <xdr:cNvPr id="20" name="図 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0EDA1C-DBEE-F13C-3B2A-546976763CF0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2938,15 +3495,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="936172" y="50705657"/>
-          <a:ext cx="17539879" cy="4896533"/>
+          <a:off x="1454727" y="55444902"/>
+          <a:ext cx="14786687" cy="1884473"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2957,23 +3514,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>247</xdr:row>
-      <xdr:rowOff>206829</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>268515</xdr:colOff>
-      <xdr:row>251</xdr:row>
-      <xdr:rowOff>206829</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>96981</xdr:colOff>
+      <xdr:row>240</xdr:row>
+      <xdr:rowOff>-1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>515585</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="矢印: 下 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A115721A-1F78-45AD-8C77-2C0F5B8FCB6B}"/>
+        <xdr:cNvPr id="21" name="正方形/長方形 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F500FDB1-C070-46F5-9563-4C0C43C3BDA2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2981,12 +3538,18 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7554686" y="49813029"/>
-          <a:ext cx="1117600" cy="914400"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="1066799" y="56609672"/>
+          <a:ext cx="15049004" cy="346364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3017,191 +3580,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>816428</xdr:colOff>
-      <xdr:row>256</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>261</xdr:row>
-      <xdr:rowOff>217715</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A490E54-1636-4806-8F55-C0A95F74F02D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="816428" y="51663601"/>
-          <a:ext cx="17569543" cy="1360714"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>130629</xdr:colOff>
-      <xdr:row>275</xdr:row>
-      <xdr:rowOff>54429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>59306</xdr:colOff>
-      <xdr:row>283</xdr:row>
-      <xdr:rowOff>54684</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="図 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C0EDA1C-DBEE-F13C-3B2A-546976763CF0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1110343" y="56061429"/>
-          <a:ext cx="15451706" cy="1829055"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>87086</xdr:colOff>
-      <xdr:row>277</xdr:row>
-      <xdr:rowOff>43543</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>598714</xdr:colOff>
-      <xdr:row>282</xdr:row>
-      <xdr:rowOff>130629</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="正方形/長方形 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F500FDB1-C070-46F5-9563-4C0C43C3BDA2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="56507743"/>
-          <a:ext cx="15359743" cy="1230086"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="19050">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>57</xdr:col>
       <xdr:colOff>500743</xdr:colOff>
-      <xdr:row>114</xdr:row>
+      <xdr:row>113</xdr:row>
       <xdr:rowOff>139337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
       <xdr:colOff>320860</xdr:colOff>
-      <xdr:row>150</xdr:row>
+      <xdr:row>149</xdr:row>
       <xdr:rowOff>193395</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3217,7 +3604,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="38711579" y="26989446"/>
+          <a:off x="38711579" y="26753919"/>
           <a:ext cx="17775608" cy="8533040"/>
           <a:chOff x="1632857" y="27083657"/>
           <a:chExt cx="18042803" cy="8283658"/>
@@ -3237,7 +3624,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3266,7 +3653,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3286,23 +3673,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>936171</xdr:colOff>
-      <xdr:row>160</xdr:row>
-      <xdr:rowOff>174171</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>188522</xdr:colOff>
-      <xdr:row>180</xdr:row>
-      <xdr:rowOff>108125</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41563</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>124692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>48058</xdr:colOff>
+      <xdr:row>175</xdr:row>
+      <xdr:rowOff>196617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="図 25">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8304523F-BF2C-4A62-B2BE-1E7E667E56D3}"/>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4D71C6-DB28-E8ED-1258-A7A9DB23E418}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3311,15 +3698,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="936171" y="36750171"/>
-          <a:ext cx="15080180" cy="4505954"/>
+          <a:off x="1011381" y="43226183"/>
+          <a:ext cx="9316750" cy="390580"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3330,23 +3717,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>675939</xdr:colOff>
-      <xdr:row>117</xdr:row>
-      <xdr:rowOff>145869</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>225061</xdr:colOff>
-      <xdr:row>147</xdr:row>
-      <xdr:rowOff>61089</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>207819</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>69272</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>245739</xdr:colOff>
+      <xdr:row>188</xdr:row>
+      <xdr:rowOff>161268</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="図 26">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE441F49-19E5-E06B-FF45-BB9A7D2B4B9A}"/>
+        <xdr:cNvPr id="30" name="図 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E001036-181C-B2BD-4165-D53AE2DCB78F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3355,101 +3742,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="675939" y="27416504"/>
-          <a:ext cx="15990393" cy="6907691"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>41563</xdr:colOff>
-      <xdr:row>183</xdr:row>
-      <xdr:rowOff>124692</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>48058</xdr:colOff>
-      <xdr:row>184</xdr:row>
-      <xdr:rowOff>196618</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D4D71C6-DB28-E8ED-1258-A7A9DB23E418}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1011381" y="43226183"/>
-          <a:ext cx="9316750" cy="390580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>207819</xdr:colOff>
-      <xdr:row>191</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>245739</xdr:colOff>
-      <xdr:row>197</xdr:row>
-      <xdr:rowOff>161268</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="図 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E001036-181C-B2BD-4165-D53AE2DCB78F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
           <a:off x="1177637" y="45138108"/>
           <a:ext cx="17328393" cy="1505160"/>
         </a:xfrm>
@@ -3464,13 +3763,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>193962</xdr:colOff>
-      <xdr:row>184</xdr:row>
+      <xdr:row>175</xdr:row>
       <xdr:rowOff>152402</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>258454</xdr:colOff>
-      <xdr:row>189</xdr:row>
+      <xdr:row>180</xdr:row>
       <xdr:rowOff>108398</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -3486,8 +3785,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1163780" y="43572547"/>
-          <a:ext cx="18019983" cy="1133633"/>
+          <a:off x="1163780" y="41452802"/>
+          <a:ext cx="18019983" cy="1133632"/>
           <a:chOff x="1191490" y="45373637"/>
           <a:chExt cx="18019983" cy="1133633"/>
         </a:xfrm>
@@ -3506,7 +3805,7 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
           <a:stretch>
             <a:fillRect/>
           </a:stretch>
@@ -3573,6 +3872,512 @@
         </xdr:txBody>
       </xdr:sp>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>700643</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>77189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>359780</xdr:colOff>
+      <xdr:row>170</xdr:row>
+      <xdr:rowOff>179710</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F584849-5C7E-89F4-7A9F-21C726E9F8EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="700643" y="37997080"/>
+          <a:ext cx="14594337" cy="2457793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>881743</xdr:colOff>
+      <xdr:row>181</xdr:row>
+      <xdr:rowOff>157352</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>540880</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>24345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{075528A6-480A-4E7F-85EA-43B796280993}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="881743" y="44990661"/>
+          <a:ext cx="14594337" cy="2457793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>193963</xdr:colOff>
+      <xdr:row>219</xdr:row>
+      <xdr:rowOff>13855</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>157900</xdr:colOff>
+      <xdr:row>229</xdr:row>
+      <xdr:rowOff>116375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5CA1D0-E94B-427A-95C1-715AFF88D737}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1163781" y="53797200"/>
+          <a:ext cx="14594337" cy="2457793"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>646216</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>95993</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>406729</xdr:colOff>
+      <xdr:row>228</xdr:row>
+      <xdr:rowOff>233549</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688B9FB3-8B2B-4D3A-B42B-4023644647AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4941125" y="54585920"/>
+          <a:ext cx="7075713" cy="1550720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>21095</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>224094</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9FADE14-08E2-751B-90EA-83BE597FF20C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1634836" y="19548764"/>
+          <a:ext cx="14651495" cy="4934639"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>227907</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>620964</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>110837</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFBC27D7-8972-A8B8-BE5E-E3448351D645}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1523999" y="25664852"/>
+          <a:ext cx="16027220" cy="2944785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>554182</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>319891</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>96623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D1DE881-0A08-185F-42BB-3E3E5193138B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524000" y="30383018"/>
+          <a:ext cx="15061127" cy="3629532"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>43294</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>124691</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>235496</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>125010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{855BDEAE-1B26-4540-8419-90FA22383305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17638567" y="19908982"/>
+          <a:ext cx="12162529" cy="2355592"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>332508</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>180110</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>519602</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>79310</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD7FF007-AA9D-435A-AF24-33C2BA75B09F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17262763" y="25381528"/>
+          <a:ext cx="12822439" cy="3667637"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>346362</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>193963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>365632</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>141431</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB4DD05A-E855-45FE-A3DE-C0BCF732F775}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17941635" y="30105927"/>
+          <a:ext cx="13984652" cy="2067213"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>332507</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>200196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>380356</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>21915</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC89E544-6E4F-4502-8387-9734F61F6A71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17927780" y="32467432"/>
+          <a:ext cx="14013231" cy="1941465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3841,15 +4646,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB87C5F3-AF35-4481-86D2-A4273C4498F7}">
-  <dimension ref="A1:U517"/>
+  <dimension ref="A1:U438"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AF7" sqref="AF7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="13.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3859,12 +4665,12 @@
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -3877,20 +4683,20 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="B22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:21">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -3904,18 +4710,12 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" t="s">
-        <v>41</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="B29" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3923,162 +4723,214 @@
         <v>1</v>
       </c>
       <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" t="s">
         <v>8</v>
       </c>
-      <c r="E53" t="s">
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>2</v>
+      </c>
+      <c r="B78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="B79" t="s">
+        <v>70</v>
+      </c>
+      <c r="D79" s="4">
+        <v>45444</v>
+      </c>
+    </row>
+    <row r="117" spans="2:6">
+      <c r="B117" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="118" spans="2:6">
+      <c r="F118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="2:6">
+      <c r="B143" t="s">
+        <v>59</v>
+      </c>
+      <c r="F143" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="2:6">
+      <c r="F144" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>11</v>
+      </c>
+      <c r="B163" t="s">
+        <v>61</v>
+      </c>
+      <c r="C163" t="s">
+        <v>57</v>
+      </c>
+      <c r="F163" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="F164" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="186" spans="2:5">
+      <c r="B186" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="H81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="2:2">
-      <c r="B108">
-        <f>B1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="2:5">
-      <c r="B125" t="s">
+      <c r="E186" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="187" spans="2:5">
+      <c r="B187" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>55</v>
+      </c>
+      <c r="B212" t="s">
+        <v>53</v>
+      </c>
+      <c r="F212" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
+      <c r="B213" t="s">
+        <v>54</v>
+      </c>
+      <c r="F213" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="A244" t="s">
         <v>10</v>
       </c>
-      <c r="E125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" t="s">
+      <c r="B244" t="s">
         <v>12</v>
       </c>
-      <c r="B154">
-        <v>2</v>
-      </c>
-      <c r="C154" t="s">
+      <c r="D244" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
-      <c r="C155" t="s">
+    <row r="245" spans="1:8">
+      <c r="D245" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="288" spans="2:6">
+      <c r="B288" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="312" spans="1:10">
+      <c r="A312">
+        <v>57.58</v>
+      </c>
+      <c r="B312" t="s">
         <v>16</v>
       </c>
-      <c r="F155" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="A273" t="s">
-        <v>11</v>
-      </c>
-      <c r="B273" t="s">
-        <v>14</v>
-      </c>
-      <c r="D273" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="D274" t="s">
+      <c r="D312" t="s">
+        <v>17</v>
+      </c>
+      <c r="I312" s="1">
+        <v>45434</v>
+      </c>
+      <c r="J312" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="339" spans="3:8">
+      <c r="C339" t="s">
         <v>18</v>
       </c>
-      <c r="H274" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="317" spans="2:6">
-      <c r="B317" t="s">
-        <v>17</v>
-      </c>
-      <c r="F317" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="378" spans="1:10">
-      <c r="A378">
-        <v>57.58</v>
-      </c>
-      <c r="B378" t="s">
+      <c r="H339" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>20</v>
+      </c>
+      <c r="B360" t="s">
         <v>19</v>
       </c>
-      <c r="D378" t="s">
-        <v>20</v>
-      </c>
-      <c r="I378" s="1">
-        <v>45433</v>
-      </c>
-      <c r="J378" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="414" spans="3:8">
-      <c r="C414" t="s">
+    </row>
+    <row r="363" spans="1:2">
+      <c r="B363" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2">
+      <c r="B377" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="401" spans="2:6">
+      <c r="B401" t="s">
+        <v>24</v>
+      </c>
+      <c r="F401" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="402" spans="2:6">
+      <c r="B402" t="s">
+        <v>25</v>
+      </c>
+      <c r="F402" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403" spans="2:6">
+      <c r="B403" t="s">
         <v>21</v>
       </c>
-      <c r="H414" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="435" spans="1:7">
-      <c r="A435" t="s">
-        <v>23</v>
-      </c>
-      <c r="B435" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="437" spans="1:7">
-      <c r="B437" t="s">
+      <c r="F403" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8">
+      <c r="A438">
+        <v>71</v>
+      </c>
+      <c r="B438" t="s">
+        <v>26</v>
+      </c>
+      <c r="E438" t="s">
         <v>27</v>
       </c>
-      <c r="G437" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="438" spans="1:7">
-      <c r="B438" t="s">
-        <v>28</v>
-      </c>
-      <c r="G438" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="439" spans="1:7">
-      <c r="B439" t="s">
-        <v>24</v>
-      </c>
-      <c r="G439" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="478" spans="2:2">
-      <c r="B478" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="492" spans="2:2">
-      <c r="B492" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="517" spans="1:8">
-      <c r="A517">
-        <v>71</v>
-      </c>
-      <c r="B517" t="s">
-        <v>29</v>
-      </c>
-      <c r="E517" t="s">
-        <v>30</v>
-      </c>
-      <c r="H517" t="s">
-        <v>9</v>
+      <c r="H438" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -4090,10 +4942,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{095035C0-1CEE-4DAC-B281-C8CC30739D84}">
-  <dimension ref="A1:AA285"/>
+  <dimension ref="A1:AG245"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AG217" sqref="AG217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -4108,47 +4960,49 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
       <c r="C46" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="27:27">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="27:33">
+      <c r="AF49" t="s">
+        <v>56</v>
+      </c>
+      <c r="AG49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="27:33">
       <c r="AA54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="2:5">
@@ -4156,121 +5010,152 @@
         <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="117" spans="2:9">
-      <c r="B117">
-        <v>2</v>
-      </c>
-      <c r="C117" t="s">
-        <v>7</v>
-      </c>
-      <c r="F117" t="s">
-        <v>43</v>
-      </c>
-      <c r="I117" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="3:7">
+      <c r="C81" t="s">
+        <v>58</v>
+      </c>
+      <c r="G81" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="82" spans="3:7">
+      <c r="G82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="3:7">
+      <c r="C107" t="s">
+        <v>59</v>
+      </c>
+      <c r="G107" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="108" spans="3:7">
+      <c r="G108" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" t="s">
+        <v>61</v>
+      </c>
+      <c r="D127" t="s">
+        <v>57</v>
+      </c>
+      <c r="G127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="G128" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
+      <c r="A149">
+        <v>94.95</v>
+      </c>
+      <c r="B149" t="s">
+        <v>51</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="150" spans="1:8">
-      <c r="A150">
-        <v>94.95</v>
-      </c>
       <c r="B150" t="s">
-        <v>58</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
-      <c r="B151" t="s">
-        <v>59</v>
-      </c>
-      <c r="H151" s="3" t="s">
-        <v>35</v>
+        <v>52</v>
+      </c>
+      <c r="H150" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
+      <c r="A157" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="158" spans="1:8">
-      <c r="A158" t="s">
-        <v>50</v>
-      </c>
       <c r="B158" t="s">
-        <v>44</v>
+        <v>40</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H158" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="B159" t="s">
-        <v>45</v>
-      </c>
-      <c r="G159" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H159" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
-      <c r="B160" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3">
-      <c r="A183" t="s">
-        <v>54</v>
-      </c>
-      <c r="C183" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="24.6" customHeight="1"/>
-    <row r="199" spans="1:8">
-      <c r="B199" t="s">
-        <v>57</v>
-      </c>
-      <c r="E199" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="B200" t="s">
-        <v>24</v>
-      </c>
-      <c r="E200" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>55</v>
-      </c>
-      <c r="B203" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>47</v>
+      </c>
+      <c r="C174" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="204" spans="1:8">
-      <c r="B204" t="s">
-        <v>47</v>
-      </c>
-      <c r="E204" t="s">
+    <row r="175" spans="1:3" ht="24.6" customHeight="1"/>
+    <row r="190" spans="2:5">
+      <c r="B190" t="s">
+        <v>50</v>
+      </c>
+      <c r="E190" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191" spans="2:5">
+      <c r="B191" t="s">
+        <v>21</v>
+      </c>
+      <c r="E191" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
+      <c r="A194" t="s">
         <v>48</v>
       </c>
-      <c r="H204" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="2:2">
-      <c r="B226" t="s">
+      <c r="B194" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="B195" t="s">
+        <v>42</v>
+      </c>
+      <c r="E195" t="s">
+        <v>43</v>
+      </c>
+      <c r="H195" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="217" spans="2:2">
+      <c r="B217" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="285" spans="2:2">
-      <c r="B285" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
